--- a/TestData/validation.xlsx
+++ b/TestData/validation.xlsx
@@ -421,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -505,14 +505,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F3" s="1"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F4" s="1"/>
-      <c r="I4" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
